--- a/trunk/Docs/IssueLog_CreateResume_Hue_v1.0.xlsx
+++ b/trunk/Docs/IssueLog_CreateResume_Hue_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="7170"/>
@@ -52,84 +52,6 @@
     <t>CreateResume_03</t>
   </si>
   <si>
-    <t xml:space="preserve">• Tạo hồ sơ:
-- "Số điện thoại" và "Di động" : nhập kí tự không phải số
-- Nhấn "Tiếp tục"
-• Kết quả hiển thị:
-- Không thông báo lỗi
-- Mở trang Kinh nghiệm làm việc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Thêm kinh nghiệm làm việc:
--Không nhập "Tỉnh/ Thành phố"
-- Nhấn "Thêm"
-• Kết quả hiển thị:
-- Thông báo lỗi 
-- Nhưng không thể nhập được "Tỉnh/ Thành phố"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Tạo hồ sơ:
--Không nhập số năm kinh nghiệm
-- Nhấn "Tiếp tục"
-• Kết quả hiển thị:
-- Thông báo lỗi
-- Không hiện Tỉnh/ Thành phố đã chọn trước đó
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Tạo hồ sơ/Trình độ học vấn:
-- Thông tin liên quan không bắt buộc nhưng hiện dấu *
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Tạo hồ sơ/Trình độ học vấn:
-- Ngày bắt đầu &gt; ngày kết thúc : Không thông báo lỗi
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Tạo hồ sơ/Công  việc mong muốn:
-- Lộn "Mục tiêu nghề nghiệp" thành "Mục tiên nghề nghiệp" 
-- Không bắt lỗi Mức lương hiện tại và mong muốn: Nhập chữ không báo lỗi
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Tạo hồ sơ/Công  việc mong muốn:
-- Nhập đủ thông tin -&gt; nhấn Tiếp tục -&gt; thông báo lỗi "The resume target job could not be saved. Please, try again."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Tạo hồ sơ/Kỹ năng:
-- Không nhập đủ thông tin -&gt; nhấn Thêm -&gt; thông báo "The skill has been saved" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Tạo hồ sơ/Kỹ năng:
-- Nhập đủ thông tin -&gt; nhấn Thêm -&gt; thông báo "The skill has been saved" nhưng không hiện kỹ năng vừa thêm vào bảng kỹ năng bên dưới
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Tạo hồ sơ:
-- Nhập chứ đủ thông tin nhấn tiếp tục -&gt; Thông báo lỗi -&gt; Huỷ -&gt; không cho huỷ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Sửa hồ sơ/kinh nghiệm làm việc:
-- Không bắt lỗi:  ngày bắt đầu&lt; ngày kết thúc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Sửa hồ sơ/ Trình độ học vấn:
-- Không bắt lỗi:  ngày bắt đầu&lt; ngày kết thúc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Sửa hồ sơ/ Kỹ năng:
-- Không nhập: thông báo saved nhưng hiện lỗi trong bảng kỹ năng
-</t>
-  </si>
-  <si>
     <t>CreateResume_04</t>
   </si>
   <si>
@@ -172,21 +94,99 @@
     <t>EditResume_06</t>
   </si>
   <si>
+    <t xml:space="preserve">• Tạo hồ sơ:
+- "Số điện thoại" và "Di động" : nhập kí tự không phải số
+- Nhấn "Tiếp tục"
+• Kết quả hiển thị:
+- Không thông báo lỗi
+- Mở trang Kinh nghiệm làm việc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Tạo hồ sơ:
+-Không nhập số năm kinh nghiệm
+- Nhấn "Tiếp tục"
+• Kết quả hiển thị:
+- Thông báo lỗi
+- Không hiện Tỉnh/ Thành phố đã chọn trước đó
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Tạo hồ sơ:
+- Nhập chứ đủ thông tin nhấn tiếp tục -&gt; Thông báo lỗi -&gt; Huỷ -&gt; không cho huỷ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Thêm kinh nghiệm làm việc:
+-Không nhập "Tỉnh/ Thành phố"
+- Nhấn "Thêm"
+• Kết quả hiển thị:
+- Thông báo lỗi 
+- Nhưng không thể nhập được "Tỉnh/ Thành phố"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Tạo hồ sơ/Trình độ học vấn:
+- Thông tin liên quan không bắt buộc nhưng hiện dấu *
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Tạo hồ sơ/Trình độ học vấn:
+- Ngày bắt đầu &gt; ngày kết thúc : Không thông báo lỗi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Tạo hồ sơ/Công  việc mong muốn:
+- Lộn "Mục tiêu nghề nghiệp" thành "Mục tiên nghề nghiệp" 
+- Không bắt lỗi Mức lương hiện tại và mong muốn: Nhập chữ không báo lỗi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Tạo hồ sơ/Công  việc mong muốn:
+- Nhập đủ thông tin -&gt; nhấn Tiếp tục -&gt; thông báo lỗi "The resume target job could not be saved. Please, try again."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Tạo hồ sơ/Kỹ năng:
+- Nhập đủ thông tin -&gt; nhấn Thêm -&gt; thông báo "The skill has been saved" nhưng không hiện kỹ năng vừa thêm vào bảng kỹ năng bên dưới
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Sửa hồ sơ/kinh nghiệm làm việc:
+- Không bắt lỗi:  ngày bắt đầu&lt; ngày kết thúc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Sửa hồ sơ/ Trình độ học vấn:
+- Không bắt lỗi:  ngày bắt đầu&lt; ngày kết thúc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Sửa hồ sơ/ Kỹ năng:
+- Không nhập: thông báo saved nhưng hiện lỗi trong bảng kỹ năng
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">• Sửa hồ sơ/ Trình độ học vấn:
 - Sửa quá trình học tập -&gt; Lưu -&gt; Hiện thêm link Tiếp tục -&gt; nhấn vào -&gt;"Trang Công việc mong muốn" bị lỗi giống như bên tạo hồ sơ
 </t>
   </si>
   <si>
+    <t xml:space="preserve">• Tạo hồ sơ/Kỹ năng:
+- Không nhập đủ thông tin -&gt; nhấn Thêm -&gt; thông báo "The skill has been saved" 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">• Tạo hồ sơ/Công  việc mong muốn:
-- Nhấn vào link "Trở lại" -&gt; KHôn vầ trang Trình dộ học vấn" mà hiện trang " Kỹ năng"
+- Nhấn vào link "Trở lại" -&gt; Không vào trang Trình dộ học vấn" mà hiện trang " Kỹ năng"
 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,12 +298,104 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -337,7 +429,7 @@
           <bgColor theme="3" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -347,98 +439,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -452,15 +452,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:F23"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Issue Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Issue Description" dataDxfId="5"/>
-    <tableColumn id="8" name="Status" dataDxfId="4"/>
-    <tableColumn id="9" name="Assigned to" dataDxfId="3"/>
-    <tableColumn id="11" name="Close date" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Issue Name" dataDxfId="4"/>
+    <tableColumn id="3" name="Issue Description" dataDxfId="3"/>
+    <tableColumn id="8" name="Status" dataDxfId="2"/>
+    <tableColumn id="9" name="Assigned to" dataDxfId="1"/>
+    <tableColumn id="11" name="Close date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -541,6 +541,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -575,6 +576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,14 +752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -769,7 +771,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -789,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="95.25" customHeight="1">
+    <row r="2" spans="1:16384" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -797,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -805,7 +807,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:16384" ht="95.25" customHeight="1">
+    <row r="3" spans="1:16384" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -813,13 +815,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:16384" ht="51" customHeight="1">
+    <row r="4" spans="1:16384" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -827,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -17211,29 +17213,29 @@
       <c r="XFC4" s="3"/>
       <c r="XFD4" s="3"/>
     </row>
-    <row r="5" spans="1:16384" ht="83.25" customHeight="1">
+    <row r="5" spans="1:16384" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:16384" ht="51" customHeight="1">
+    <row r="6" spans="1:16384" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -17241,15 +17243,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:16384" ht="39" customHeight="1">
+    <row r="7" spans="1:16384" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -17257,12 +17259,12 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:16384" ht="58.5" customHeight="1">
+    <row r="8" spans="1:16384" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
@@ -17273,15 +17275,15 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:16384" ht="84.75" customHeight="1">
+    <row r="9" spans="1:16384" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -17289,15 +17291,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:16384" ht="84.75" customHeight="1">
+    <row r="10" spans="1:16384" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -17305,15 +17307,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:16384" ht="84.75" customHeight="1">
+    <row r="11" spans="1:16384" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -17321,15 +17323,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:16384" ht="52.5" customHeight="1">
+    <row r="12" spans="1:16384" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -17340,15 +17342,15 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:16384" ht="55.5" customHeight="1">
+    <row r="13" spans="1:16384" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -17356,15 +17358,15 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:16384" ht="64.5" customHeight="1">
+    <row r="14" spans="1:16384" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -17372,15 +17374,15 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="15" spans="1:16384" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -17388,15 +17390,15 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:16384" ht="36.75" customHeight="1">
+    <row r="16" spans="1:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -17404,15 +17406,15 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="46.5" customHeight="1">
+    <row r="17" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -17420,15 +17422,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="57" customHeight="1">
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -17436,35 +17438,35 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="63.75" customHeight="1">
+    <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="75.75" customHeight="1">
+    <row r="20" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="75.75" customHeight="1">
+    <row r="21" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="111" customHeight="1">
+    <row r="22" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="106.5" customHeight="1">
+    <row r="23" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>

--- a/trunk/Docs/IssueLog_CreateResume_Hue_v1.0.xlsx
+++ b/trunk/Docs/IssueLog_CreateResume_Hue_v1.0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -181,12 +181,18 @@
 - Nhấn vào link "Trở lại" -&gt; Không vào trang Trình dộ học vấn" mà hiện trang " Kỹ năng"
 </t>
   </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +223,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -245,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,6 +299,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,21 +322,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -341,6 +355,20 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -457,10 +485,10 @@
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="5"/>
     <tableColumn id="2" name="Issue Name" dataDxfId="4"/>
-    <tableColumn id="3" name="Issue Description" dataDxfId="3"/>
-    <tableColumn id="8" name="Status" dataDxfId="2"/>
+    <tableColumn id="3" name="Issue Description" dataDxfId="2"/>
+    <tableColumn id="8" name="Status" dataDxfId="0"/>
     <tableColumn id="9" name="Assigned to" dataDxfId="1"/>
-    <tableColumn id="11" name="Close date" dataDxfId="0"/>
+    <tableColumn id="11" name="Close date" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -755,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -801,7 +829,7 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2"/>
@@ -817,7 +845,9 @@
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
@@ -831,7 +861,9 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -17223,7 +17255,9 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
@@ -17237,8 +17271,8 @@
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -17253,7 +17287,7 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2"/>
@@ -17269,8 +17303,8 @@
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -17285,8 +17319,8 @@
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
+      <c r="D9" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -17301,8 +17335,8 @@
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -17317,7 +17351,7 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2"/>
@@ -17333,8 +17367,8 @@
       <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -17352,7 +17386,7 @@
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2"/>
@@ -17368,7 +17402,7 @@
       <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2"/>
@@ -17384,7 +17418,7 @@
       <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2"/>
@@ -17400,7 +17434,7 @@
       <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2"/>
@@ -17416,8 +17450,8 @@
       <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
+      <c r="D17" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -17432,7 +17466,7 @@
       <c r="C18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="6"/>
@@ -17441,35 +17475,35 @@
     <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="2"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>

--- a/trunk/Docs/IssueLog_CreateResume_Hue_v1.0.xlsx
+++ b/trunk/Docs/IssueLog_CreateResume_Hue_v1.0.xlsx
@@ -322,7 +322,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -350,11 +350,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -369,6 +368,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -485,10 +485,10 @@
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="5"/>
     <tableColumn id="2" name="Issue Name" dataDxfId="4"/>
-    <tableColumn id="3" name="Issue Description" dataDxfId="2"/>
-    <tableColumn id="8" name="Status" dataDxfId="0"/>
+    <tableColumn id="3" name="Issue Description" dataDxfId="3"/>
+    <tableColumn id="8" name="Status" dataDxfId="2"/>
     <tableColumn id="9" name="Assigned to" dataDxfId="1"/>
-    <tableColumn id="11" name="Close date" dataDxfId="3"/>
+    <tableColumn id="11" name="Close date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -783,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -17287,8 +17287,8 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>6</v>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -17386,8 +17386,8 @@
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
+      <c r="D13" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -17402,8 +17402,8 @@
       <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>6</v>
+      <c r="D14" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -17434,8 +17434,8 @@
       <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>6</v>
+      <c r="D16" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
